--- a/PRISCILLA MUGURE KIBATHI.xlsx
+++ b/PRISCILLA MUGURE KIBATHI.xlsx
@@ -4271,7 +4271,7 @@
   <dimension ref="B2:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,10 +4414,12 @@
         <f>D8+E8+F8</f>
         <v>11000</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="16">
+        <v>11000</v>
+      </c>
       <c r="I8" s="17">
         <f t="shared" si="1"/>
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" t="s">
@@ -4672,11 +4674,11 @@
       </c>
       <c r="H18" s="16">
         <f>SUM(H6:H17)</f>
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="2"/>
-        <v>103500</v>
+        <v>92500</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
@@ -4690,7 +4692,7 @@
       </c>
       <c r="I19" s="27">
         <f>I18+20000</f>
-        <v>123500</v>
+        <v>112500</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -4768,7 +4770,7 @@
       </c>
       <c r="G24" s="37">
         <f>H18</f>
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -4993,7 +4995,7 @@
       </c>
       <c r="G38" s="44">
         <f>G24+G25+G27+G26-H28</f>
-        <v>-37094</v>
+        <v>-26094</v>
       </c>
       <c r="H38" s="44">
         <f>SUM(H30:H37)</f>
@@ -5001,7 +5003,7 @@
       </c>
       <c r="I38" s="44">
         <f>G38-H38</f>
-        <v>-37094</v>
+        <v>-26094</v>
       </c>
       <c r="J38" s="42"/>
     </row>

--- a/PRISCILLA MUGURE KIBATHI.xlsx
+++ b/PRISCILLA MUGURE KIBATHI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="630" windowWidth="17715" windowHeight="10485" firstSheet="9" activeTab="12"/>
+    <workbookView minimized="1" xWindow="960" yWindow="630" windowWidth="17715" windowHeight="10485" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER 20" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="110">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -3462,7 +3462,7 @@
   <dimension ref="B2:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:M48"/>
+      <selection activeCell="E48" sqref="E47:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,11 +4270,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -4359,10 +4362,12 @@
         <f>D6+E6+F6</f>
         <v>10000</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="16">
+        <v>10000</v>
+      </c>
       <c r="I6" s="17">
         <f>G6-H6</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" t="s">
@@ -4388,10 +4393,12 @@
         <f t="shared" ref="G7:G17" si="0">D7+E7+F7</f>
         <v>10000</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16">
+        <v>10000</v>
+      </c>
       <c r="I7" s="17">
         <f t="shared" ref="I7:I16" si="1">G7-H7</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15"/>
     </row>
@@ -4473,13 +4480,15 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="16">
+        <v>10000</v>
+      </c>
       <c r="I10" s="17">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="15">
-        <v>200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -4521,10 +4530,12 @@
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="16">
+        <v>11000</v>
+      </c>
       <c r="I12" s="17">
         <f t="shared" si="1"/>
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="15"/>
     </row>
@@ -4674,15 +4685,15 @@
       </c>
       <c r="H18" s="16">
         <f>SUM(H6:H17)</f>
-        <v>21000</v>
+        <v>62000</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="2"/>
-        <v>92500</v>
+        <v>51500</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -4692,7 +4703,7 @@
       </c>
       <c r="I19" s="27">
         <f>I18+20000</f>
-        <v>112500</v>
+        <v>71500</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -4770,7 +4781,7 @@
       </c>
       <c r="G24" s="37">
         <f>H18</f>
-        <v>21000</v>
+        <v>62000</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -4782,8 +4793,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="37">
-        <f>'NOVEMBER 21'!E38</f>
-        <v>-9757</v>
+        <v>-5000</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -4804,7 +4814,7 @@
       </c>
       <c r="C26" s="37">
         <f>J18</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -4813,7 +4823,7 @@
       </c>
       <c r="G26" s="37">
         <f>J18</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -4910,7 +4920,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18">
-        <v>7600</v>
+        <v>2860</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="39"/>
@@ -4920,13 +4930,21 @@
       <c r="J32" s="33"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
+      <c r="B33" s="39" t="s">
+        <v>48</v>
+      </c>
       <c r="C33" s="38"/>
-      <c r="D33" s="25"/>
+      <c r="D33" s="25">
+        <v>60000</v>
+      </c>
       <c r="E33" s="25"/>
-      <c r="F33" s="39"/>
+      <c r="F33" s="39" t="s">
+        <v>48</v>
+      </c>
       <c r="G33" s="38"/>
-      <c r="H33" s="25"/>
+      <c r="H33" s="25">
+        <v>60000</v>
+      </c>
       <c r="I33" s="25"/>
       <c r="J33" s="42"/>
     </row>
@@ -4980,30 +4998,30 @@
       </c>
       <c r="C38" s="44">
         <f>C27+C24+C25+C26-D28</f>
-        <v>58103</v>
+        <v>63360</v>
       </c>
       <c r="D38" s="44">
         <f>SUM(D30:D37)</f>
-        <v>7600</v>
+        <v>62860</v>
       </c>
       <c r="E38" s="44">
         <f>C38-D38</f>
-        <v>50503</v>
+        <v>500</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="44">
         <f>G24+G25+G27+G26-H28</f>
-        <v>-26094</v>
+        <v>15406</v>
       </c>
       <c r="H38" s="44">
         <f>SUM(H30:H37)</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I38" s="44">
         <f>G38-H38</f>
-        <v>-26094</v>
+        <v>-44594</v>
       </c>
       <c r="J38" s="42"/>
     </row>
